--- a/templates/report/prueba.xlsx
+++ b/templates/report/prueba.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8628AA21-3CDB-4452-9B7E-90F042FD42A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5DF167-58CA-41C6-BBCA-98EAAD28EEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prueba" sheetId="41" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Código</t>
   </si>
@@ -540,21 +537,19 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="A3" s="4"/>
       <c r="B3" s="5"/>
     </row>
   </sheetData>
@@ -564,12 +559,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -770,20 +767,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
+    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -808,12 +806,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
-    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/templates/report/prueba.xlsx
+++ b/templates/report/prueba.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5DF167-58CA-41C6-BBCA-98EAAD28EEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191D0CDA-5ABD-45C4-95C0-1E2CFA7741E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prueba" sheetId="41" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Prueba!$A$2:$B$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -526,11 +529,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48469C1-5DA9-43F7-A0B7-76DC91FAD532}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.28515625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="11.42578125" style="1"/>
   </cols>
@@ -553,20 +558,19 @@
       <c r="B3" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:B2" xr:uid="{F48469C1-5DA9-43F7-A0B7-76DC91FAD532}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -767,21 +771,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
-    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -806,9 +809,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
+    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>